--- a/실무_엑셀_예제_파일/Chapter07/07-018.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-018.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csson\Documents\00. 진행\엑셀\예제 파일\Chapter07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330929C-3111-4ED9-A61F-947B6E48776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD6D3E0-1014-4A3D-8DAB-9E2F052226FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1515" windowWidth="21525" windowHeight="13515" xr2:uid="{431F3EB7-A65C-4DC9-BE60-3BB83CB0FD0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{431F3EB7-A65C-4DC9-BE60-3BB83CB0FD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="어학원시험" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -269,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,12 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,45 +596,45 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
     <col min="3" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="5" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="6.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,19 +660,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>70</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>84</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="3" t="str">
+        <f>IF(AND(C7 &gt;= 60, D7 &gt;= 60), "합격", "불합격")</f>
+        <v>합격</v>
+      </c>
+      <c r="F7" s="3">
+        <f>AVERAGE(C7:D7)</f>
+        <v>77</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>IF(F7&gt;=90,"A",IF(F7&gt;=80,"B",IF(F7&gt;=70,"C","D")))</f>
+        <v>C</v>
+      </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -695,19 +689,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>99</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>64</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="3" t="str">
+        <f t="shared" ref="E8:E20" si="0">IF(AND(C8 &gt;= 60, D8 &gt;= 60), "합격", "불합격")</f>
+        <v>합격</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F20" si="1">AVERAGE(C8:D8)</f>
+        <v>81.5</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" ref="G8:G20" si="2">IF(F8&gt;=90,"A",IF(F8&gt;=80,"B",IF(F8&gt;=70,"C","D")))</f>
+        <v>B</v>
+      </c>
       <c r="I8" s="3">
         <v>70</v>
       </c>
@@ -715,19 +718,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>73</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>87</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
       <c r="I9" s="3">
         <v>80</v>
       </c>
@@ -735,19 +747,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>79</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>94</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>86.5</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
       <c r="I10" s="3">
         <v>90</v>
       </c>
@@ -755,145 +776,235 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>100</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>61</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>80.5</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>66</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>64</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>85</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>58</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>불합격</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>71.5</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>99</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>90</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>94.5</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>55</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>76</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>불합격</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>65.5</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>72</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>96</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>60</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>64</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>91</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>71</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>100</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>74</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>합격</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>53</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>89</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>불합격</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/실무_엑셀_예제_파일/Chapter07/07-018.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD6D3E0-1014-4A3D-8DAB-9E2F052226FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6060CD2-61AE-488B-BF77-8CE1EE01E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{431F3EB7-A65C-4DC9-BE60-3BB83CB0FD0B}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -679,7 +679,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f>IF(F7&gt;=90,"A",IF(F7&gt;=80,"B",IF(F7&gt;=70,"C","D")))</f>
+        <f>VLOOKUP(F7, $I$7:$J$10, 2)</f>
         <v>C</v>
       </c>
       <c r="I7" s="3">
@@ -708,7 +708,7 @@
         <v>81.5</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" ref="G8:G20" si="2">IF(F8&gt;=90,"A",IF(F8&gt;=80,"B",IF(F8&gt;=70,"C","D")))</f>
+        <f t="shared" ref="G8:G20" si="2">VLOOKUP(F8, $I$7:$J$10, 2)</f>
         <v>B</v>
       </c>
       <c r="I8" s="3">
